--- a/excel_graphics/fext.xlsx
+++ b/excel_graphics/fext.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justusmulthaup/BA/Thesis/figures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justusmulthaup/BA/excel_graphics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E957E53F-8F69-A245-8DBA-807052DAF1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1FA334-2177-E74D-8799-DD5550A4AF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{8909C19D-DE46-C744-8189-664D927F3ECD}"/>
+    <workbookView xWindow="1140" yWindow="500" windowWidth="27660" windowHeight="17500" xr2:uid="{8909C19D-DE46-C744-8189-664D927F3ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -672,7 +672,7 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="748346" cy="344453"/>
+    <xdr:ext cx="762516" cy="344453"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -688,8 +688,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8969872" y="2639885"/>
-              <a:ext cx="748346" cy="344453"/>
+              <a:off x="8978900" y="2608695"/>
+              <a:ext cx="762516" cy="344453"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -716,6 +716,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -725,8 +726,9 @@
                     <m:r>
                       <a:rPr lang="de-DE" sz="1100" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>𝑑</m:t>
+                      <m:t>𝜆</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="de-DE" sz="1100" b="0" i="1">
@@ -784,8 +786,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8969872" y="2639885"/>
-              <a:ext cx="748346" cy="344453"/>
+              <a:off x="8978900" y="2608695"/>
+              <a:ext cx="762516" cy="344453"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -812,11 +814,19 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜆</a:t>
+              </a:r>
               <a:r>
                 <a:rPr lang="de-DE" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑑=1.41 𝑅_𝑒</a:t>
+                <a:t>=1.41 𝑅_𝑒</a:t>
               </a:r>
               <a:endParaRPr lang="de-DE" sz="1100" b="0"/>
             </a:p>
@@ -892,8 +902,8 @@
       <xdr:rowOff>25731</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="93173" cy="219163"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="74" name="TextBox 73">
@@ -935,6 +945,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -967,7 +978,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="74" name="TextBox 73">
@@ -1087,8 +1098,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="148310" cy="219163"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="77" name="TextBox 76">
@@ -1130,6 +1141,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1162,7 +1174,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="77" name="TextBox 76">
@@ -1226,8 +1238,8 @@
       <xdr:rowOff>201876</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="544252" cy="344453"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="78" name="TextBox 77">
@@ -1269,6 +1281,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1317,7 +1330,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="78" name="TextBox 77">
@@ -1384,8 +1397,8 @@
       <xdr:rowOff>144455</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="538609" cy="344453"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="79" name="TextBox 78">
@@ -1427,6 +1440,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1475,7 +1489,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="79" name="TextBox 78">
@@ -1599,8 +1613,8 @@
       <xdr:rowOff>87516</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="759119" cy="344453"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="82" name="TextBox 81">
@@ -1642,6 +1656,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1715,7 +1730,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="82" name="TextBox 81">
@@ -1839,8 +1854,8 @@
       <xdr:rowOff>83035</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="663130" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="87" name="TextBox 86">
@@ -1882,6 +1897,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1933,7 +1949,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="87" name="TextBox 86">
@@ -2054,8 +2070,8 @@
       <xdr:rowOff>69272</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="663130" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="91" name="TextBox 90">
@@ -2097,6 +2113,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2148,7 +2165,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="91" name="TextBox 90">
@@ -2212,8 +2229,8 @@
       <xdr:rowOff>42141</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="373115" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="97" name="TextBox 96">
@@ -2255,6 +2272,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2281,7 +2299,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="97" name="TextBox 96">
@@ -2345,8 +2363,8 @@
       <xdr:rowOff>34637</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="373115" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="98" name="TextBox 97">
@@ -2388,6 +2406,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2420,7 +2439,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="98" name="TextBox 97">
@@ -2779,7 +2798,7 @@
   <dimension ref="A1:AB51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="220" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
